--- a/웹크롤링(날씨, 뉴스)/news_data/서울날씨뉴스_news.xlsx
+++ b/웹크롤링(날씨, 뉴스)/news_data/서울날씨뉴스_news.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,27 +471,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>서쪽 중심 세찬 비…서울 시간당 최대 30㎜도 [내일날씨]</t>
+          <t>[내일날씨] 전국 대부분 비…돌풍·천둥·번개 유의</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/018/0006066360?sid=103</t>
+          <t>https://www.newspim.com/news/view/20250716000653</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">서울을 포함한 수도권 곳곳에서 시간당 최대 30~50㎜의 비가 집중적으로 오는 곳이 있으니 유의해야겠다. 연일 찜통더위가 이어지고 있는 8일 전북 완주군 삼봉로 일원에 소나기가 쏟아지고 있다. (사진=뉴스1)... </t>
+          <t xml:space="preserve">기상청에 따르면 서울·인천·경기는 50∼150㎜의 비가 내리겠으며 경기남부 지역은 200㎜ 이상 폭우가 쏟아지기도 하겠다. [사진=뉴스핌 DB] 지역별 16∼17일 예상 강수량은 서해5도 10∼40㎜, 강원 내륙·산지 50... </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 17:01:00 +0900</t>
+          <t>Wed, 16 Jul 2025 17:30:00 +0900</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-15 17:03:14</t>
+          <t>2025-07-16 17:36:57</t>
         </is>
       </c>
     </row>
@@ -501,27 +501,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>정부 "배추 생산량 줄면 비축 물량 하루 100톤~250톤씩 푼다"</t>
+          <t>전국 최대 200mm 폭우… 돌풍·풍랑 유의 [내일날씨]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.delighti.co.kr/news/articleView.html?idxno=99247</t>
+          <t>https://www.bntnews.co.kr/article/view/bnt202507160190</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">서울 시내의 한 대형마트.  (사진=연합뉴스)  정부는 이상기후 여파로 여름철 배추 수급이 불안해지면 비축 배추 등을 시장에 하루 100∼250톤씩 방출하기로 했다. 농림축산식품부는 최근 폭염, 호우 등 급변하는 날씨에... </t>
+          <t>©서울, 서울날씨, 오늘날씨, 내일날씨 오늘(16일) 날씨는 전국이 대체로 흐리고 전국 대부분 지역에... 아침 최저기온은 23~26도, 낮 최고기온은 30~35도가 되겠다. bnt뉴스 라이프팀 기사제보</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 16:52:00 +0900</t>
+          <t>Wed, 16 Jul 2025 17:30:00 +0900</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-15 17:03:14</t>
+          <t>2025-07-16 17:36:57</t>
         </is>
       </c>
     </row>
@@ -531,27 +531,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>전국 대부분 '강하고 많은 비'…서울 낮 31도, 폭우 대비 철저히 (내일날...</t>
+          <t>[퇴근길 날씨] 전국 곳곳 장맛비… 수도권 등은 호우특보</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.topstarnews.net/news/articleView.html?idxno=15733910</t>
+          <t>https://www.asiatime.co.kr/article/20250716500377</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(오전/오후 날씨, 최저/최고기온, 오전/오후 강수확률)는 다음과 같다. ○ 중부지역 서울 : 흐리고가끔비... 포항 : 흐리고한때비/흐리고비, 23℃/30℃, 60%/60% 제주 : 흐리고한때비/흐림, 24℃/31℃, 60%/30% [톱스타뉴스=]</t>
+          <t xml:space="preserve">서울 종로구 광화문광장 인근에서 외국인 관광객이 비를 맞으며 이동하고 있다.(사진=연합뉴스) 기상청에 따르면 이날 예상 강수량은 서울∙인천∙경기, 서해5도 50~150㎜,강원내륙∙산지 50~100㎜, 강원동해안 5~40... </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 16:46:00 +0900</t>
+          <t>Wed, 16 Jul 2025 17:24:00 +0900</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-15 17:03:14</t>
+          <t>2025-07-16 17:36:57</t>
         </is>
       </c>
     </row>
@@ -561,27 +561,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>수박, 7월 처음으로 평균 3만원 넘었다…열흘새 6천원 '껑충'(종합)</t>
+          <t>중부·전라 중심으로 200mm 넘는 폭우…내일 전국 흐리고 비(내일날씨)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/001/0015508761?sid=101</t>
+          <t>https://www.topstarnews.net/news/articleView.html?idxno=15735442</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">서울 마포의 한 과일가게 주인은 "이달 초만 해도 수박 8㎏짜리를 2만8천∼2만9천원 받았는데 지금은... 3만9천원"이라면서 "날씨가 더워 당도가 올라오지 않은 탓에 물량이 부족하다"고 연합뉴스에 말했다. 그러면서... </t>
+          <t>(오전/오후 날씨, 최저/최고기온, 오전/오후 강수확률)는 다음과 같다. ○ 중부지역 서울 : 흐리고비... 60%/60% 포항 : 흐리고비/흐리고비, 25℃/31℃, 60%/60% 제주 : 흐림/흐리고비, 27℃/32℃, 30%/70% [톱스타뉴스=]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 15:59:00 +0900</t>
+          <t>Wed, 16 Jul 2025 16:48:00 +0900</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 17:36:57</t>
         </is>
       </c>
     </row>
@@ -591,27 +591,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>서울 오후 흐림, 현재 기온 25.6도…습도 75%</t>
+          <t>여름 장맛비 이어지는 현재, 흐린 날씨에도 즐기기 좋은 여행지</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.joongangenews.com/news/articleView.html?idxno=435002</t>
+          <t>https://www.topstarnews.net/news/articleView.html?idxno=15735432</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">|중앙이코노미뉴스 이상민 기자|출처=한국관광공사  7월 15일 오후 기준 서울특별시 현재 기온은 25.6도이며, 전날보다 2.3도 상승했다. 체감온도는 27.2도로 다소 더운 편이며, 날씨는 종일 흐림 상태를 유지하고 있다.... </t>
+          <t>곳곳에는 날씨에 크게 구애받지 않고 즐길 수 있는 여름 여행지가 많다. 수도권에서는 서울 경복궁과... 흐린 하늘 아래 펼쳐진 제주 해안도로는 오히려 한적하고 낭만적인 분위기를 자아낸다. [톱스타뉴스=]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 15:30:00 +0900</t>
+          <t>Wed, 16 Jul 2025 16:46:00 +0900</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 17:36:57</t>
         </is>
       </c>
     </row>
@@ -621,27 +621,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[현장] 서울로보틱스, 새로운 방식의 자율주행으로 글로벌 시장 공략 '박...</t>
+          <t>서울•인천 등 호우주의보…경기남부 최대 200㎜ 이상 '강한 비'</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.joongangenews.com/news/articleView.html?idxno=434970</t>
+          <t>https://www.gukjenews.com/news/articleView.html?idxno=3326485</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">|중앙이코노미뉴스 송태원 기자|서울로보틱스의 인프라 기반 자율주행 기술로 주행하는 아이오닉5[영상... 이 대표는 "서울로보틱스는 지난 7년간 독일의 폭설, 미국 텍사스의 흙먼지 폭풍 같은 극단적인 날씨 조건에서... </t>
+          <t xml:space="preserve">비스케치, 날씨, 폭우, 태풍 (국제뉴스DB) 16일 오후 5시를 기해 서울 전역과 인천, 경기 성남·부천·남양주 등지에 호우주의보가 발효됐다. 이날 기상청은 "오늘부터 내일 사이 중부지방, 오늘 밤부터 모레 사이... </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 15:28:00 +0900</t>
+          <t>Wed, 16 Jul 2025 15:30:00 +0900</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -651,27 +651,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[내일날씨] 서울 오전 23도 흐리고 가끔 비…오후 28도까지 올라</t>
+          <t>레드벨벳 조이, '흐린 날씨에도 조이 만나러 가득 모인 팬들'…'금발 조...</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.joongangenews.com/news/articleView.html?idxno=434994</t>
+          <t>https://www.topstarnews.net/news/articleView.html?idxno=15735105</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">|중앙이코노미뉴스 이상민 기자|출처=한국관광공사 내일인 7월 16일에 서울특별시 최저기온은 23도, 오후 최고기온은 28도로 예상된다. 하늘은 종일 흐릴 것으로 보이며, 오전에는 가끔 비, 오후에는 본격적인 비가 내릴... </t>
+          <t>7월 16일 서울 양천구 목동 SBS에서 진행된 'TV 동물농장' 녹화에 레드벨벳(Red Velvet) 조이가... 레드벨벳(Red Velvet) 조이는 두 번째 솔로 앨범 컴백을 예고해 화제를 모으고 있다. [톱스타뉴스=]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 15:20:00 +0900</t>
+          <t>Wed, 16 Jul 2025 14:06:00 +0900</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -681,27 +681,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[고수다] "윤 어게인이라니 답답‥이러면 내년 지방선거 참패"</t>
+          <t>레드벨벳 조이, '내리던 비도 멎게 만드는 날씨 요정 등장' (동물농장 출...</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/214/0001436421?sid=100</t>
+          <t>https://www.topstarnews.net/news/articleView.html?idxno=15735086</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">■ 방송 : MBC 뉴스외전 (월~금 오후 01:50) ■ 진행 : 이언주 기자 ■ 대담 : 김성태 전 국회의원(18·19·20대)... 어제 강제 구인하려고 했는데 서울구치소 측에서 전직 대통령을 물리력을 동원해서 끌어내기는 좀 힘들다 이런... </t>
+          <t>7월 16일 서울 양천구 목동 SBS에서 진행된 'TV 동물농장' 녹화에 레드벨벳(Red Velvet) 조이가... 레드벨벳(Red Velvet) 조이는 두 번째 솔로 앨범 컴백을 예고해 화제를 모으고 있다. [톱스타뉴스=]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 15:14:00 +0900</t>
+          <t>Wed, 16 Jul 2025 13:54:00 +0900</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -711,27 +711,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>순천 가볼 만한 곳, 순천만국가정원, 습지, 낙안읍성까지</t>
+          <t>[기상청 속보]오늘날씨 수원 등 경기 7곳, 보령·서천등 충남 8곳, 인천...</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.topstarnews.net/news/articleView.html?idxno=15733711</t>
+          <t>http://www.issuenbiz.com/news/articleView.html?idxno=63815</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">7월 셋째 주 순천시의 날씨는 최고기온 29도에서 최저기온 22도로 예보된다. 순천의 대표적인 생태 공간인... 순천 조례동에는 1950년대부터 1980년대까지의 순천 읍내, 서울 변두리, 달동네 등을 재현한 순천 드라마 촬영장이... </t>
+          <t xml:space="preserve">오늘날씨 수원 등 경기 7곳, 보령·서천등 충남 8곳, 인천 옹진에 호우주의보 발효/사진=연합뉴스TV자... 16∼17일 예상 강수량은 서울·인천·경기 50∼150㎜(많은 곳 경기 남부 200㎜ 이상), 서해5도 10∼40㎜, 강원... </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 14:50:00 +0900</t>
+          <t>Wed, 16 Jul 2025 13:24:00 +0900</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -741,27 +741,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3만원 넘더니 4만원 가는 중…폭염에 '귀족 과일'된 수박</t>
+          <t>[날씨] 오늘(수) 전국 비/소나기…폭우·돌풍·벼락</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005622788?sid=101</t>
+          <t>https://science.ytn.co.kr/weather/weather_view.php?s_mcd=1000&amp;key=202507160609450001</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">서울 마포의 한 과일가게 주인은 연합뉴스에 "이달 초만 해도 수박 8㎏짜리를 2만8000~2만9000원 받았는데 지금은 3만7000원에 판다"고 말했다. 그는 "9㎏짜리는 4만원은 받아야 하는데 3만9000원"이라면서 "날씨가 더워... </t>
+          <t>전국이 대체로 흐리겠고, 서울, 경기, 강원영서, 충청, 전라, 경북서부는 아침부터, 강원영동... 타면서 날은 다시 더워질 전망이다. 본 기사는 날씨 전문 뉴스매체 온케이웨더(www.onkweather.com)에서 제공하고 있습니다.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 14:42:00 +0900</t>
+          <t>Wed, 16 Jul 2025 13:06:00 +0900</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -771,27 +771,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[단독] 장경태 "12·4 '안가 회동'에 군복 입은 사람 있었다"</t>
+          <t>[뉴스나우] 중부 시간당 최고 50mm '집중호우'...날씨 전망은?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/047/0002480984?sid=100</t>
+          <t>https://n.news.naver.com/mnews/article/052/0002219685?sid=103</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">하지만 어제도 우리 국민들은 쏟아지는 뉴스에 밤잠을 못 이뤘습니다. 화가 나는 일들이 쏟아지고 있는데요. 바로 윤석열 내란 수괴 피의자. 피고인이자 피의자로 지금 서울 구치소에 있는데. 어제 내란 특검 출석하지... </t>
+          <t xml:space="preserve">인용 시 [YTN 뉴스NOW] 명시해주시기 바랍니다. 오늘 전국 대부분 지역이 흐린 가운데 일부 지역에는... 그 밖에 경기도 남부와 서울 그리고 강원도 영서 그리고 충청북도 충남, 전라북도에는 호우주의보가 예비특보로 나와... </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 14:36:00 +0900</t>
+          <t>Wed, 16 Jul 2025 12:55:00 +0900</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -801,27 +801,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[연합뉴스 이 시각 헤드라인] - 14:30</t>
+          <t>[자막뉴스] 강력한 비구름대 진입...기상청이 경고한 내용</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/001/0015508381?sid=100</t>
+          <t>https://n.news.naver.com/mnews/article/052/0002219688?sid=102</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">■ 내란특검 "尹 강제구인 지휘 불이행 서울구치소에 책임 묻겠다" '12·3 비상계엄' 관련 내란·외환... 농림축산식품부는 최근 폭염, 호우 등 급변하는 날씨에 따라 농축산물 수급 상황이 불안해질 수 있다고... </t>
+          <t xml:space="preserve">취재기자 연결해 날씨 상황 알아보겠습니다. 고한석 기자! 어제부터 전국에서 산발적으로 비가 내렸는데... 예상 강수량을 보면, 오늘과 내일 사이, 경기 남부·충청 200mm 이상, 강원·호남 서부 150mm 이상 서울 등 수도권... </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 14:30:00 +0900</t>
+          <t>Wed, 16 Jul 2025 12:30:00 +0900</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -831,27 +831,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>교도소서 열대야 시달린 전두환... "선풍기 한 대도 반입시킬 수 없다" ...</t>
+          <t>오늘부터 최대 200mm '물폭탄' 쏟아진다... 전국 비소식 [내일 날씨]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/047/0002480979?sid=100</t>
+          <t>https://www.ggilbo.com/news/articleView.html?idxno=1101211</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">이런 날씨는 전두환에게 제공된 특혜가 도리어 짐이 되게 만들었다. 8월 4일 자 &amp;lt;조선일보&amp;gt; '전-노씨 잠 못... 18 첫 공판이 열리는 서울지법에 도착해 호송차에서 내려 구치감으로 들어서고 있다. ⓒ 연합뉴스 그런데... </t>
+          <t xml:space="preserve">사진= 연합뉴스 수요일인 16일 전국이 대체로 흐린 가운데, 전국에 또다시 비가 내리겠다. 16일... 지역별로 예상 강수량은 17일까지 △서울·인천·경기 50~150㎜ △서해5도 10~40㎜ △강원내륙산지 50~100... </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 14:27:00 +0900</t>
+          <t>Wed, 16 Jul 2025 11:14:00 +0900</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -861,27 +861,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7월 16일 내일 날씨, 전국 대부분 지역 흐림→비…예상 강수량-기온 보...</t>
+          <t>보양식 ‘나 혼자, 저렴하게 먹는다’…소포장·간편 조리·가성비 키워...</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.topstarnews.net/news/articleView.html?idxno=15733666</t>
+          <t>https://weekly.cnbnews.com/news/article.html?no=183382</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>15일 예상 강수량은 서울, 인천, 경기 5~20mm, 강원내륙, 산지 10~60mm, 강원동해안 5~40mm, 충북 10~60mm... 예상 최고기온은 오늘(15일) 25~31도, 16일(수) 26~31도, 17일(목) 26~32도, 18일(금) 28~32도다. [톱스타뉴스=]</t>
+          <t xml:space="preserve">사진=연합뉴스 올해 초복(20일)을 앞두고 ‘혼자 먹는 가성비 보양식’이 여름철 식탁의 키워드로 떠오르고... 이마트24 측은 “최근 서울의 7월 초 날씨가 117년만에 최고기온을 기록하는 등 폭염이 지속되는 가운데... </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 14:08:00 +0900</t>
+          <t>Wed, 16 Jul 2025 10:30:00 +0900</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -891,27 +891,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>'폭염 주춤' 이번주 내내 비...16일~17일 중부·전북 200mm '물폭탄'</t>
+          <t>서울 흐림, 오후부터 비 소식…미세먼지 '보통'</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.newspim.com/news/view/20250715000627</t>
+          <t>https://www.joongangenews.com/news/articleView.html?idxno=435154</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">17일부터는 북태평양고기압 가장자리를 따라 따뜻하고 습한 남서풍이 불어들면서 습한 날씨가 이어지겠다.... [서울=뉴스핌] 김학선 기자 = 비가 내리면서 2주 넘게 이어지던 폭염이 잠시 주춤해진 14일 서울... </t>
+          <t>|중앙이코노미뉴스 이상민 기자|출처=한국관광공사  7월 16일 오전 기준 서울의 현재 기온은 24.5도로... 비교적 야외활동에 큰 무리는 없는 날씨다. 오늘 서울 일몰 시간은 오후 7시 53분으로 예고되어 있다.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 14:04:00 +0900</t>
+          <t>Wed, 16 Jul 2025 09:36:00 +0900</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -921,27 +921,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>농식품부 "배추 생산 줄면 비축물량 하루 100∼250t씩 푼다"</t>
+          <t>'이른 폭염' 배춧값 급등‥복날 앞 생닭도 '들썩'</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/001/0015508274?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/214/0001436574?sid=101</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">늘듯 (서울=연합뉴스) 신선미 기자 = 정부는 이상기후 여파로 여름철 배추 수급이 불안해지면 비축 배추 등을 시장에 하루 100∼250t(톤)씩 방출하기로 했다. 농림축산식품부는 최근 폭염, 호우 등 급변하는 날씨에 따라... </t>
+          <t xml:space="preserve">◀ 리포트 ▶ 서울의 한 대형마트. 매대 앞에 선 주부가 배추를 들었다 놨다 한참을 망설입니다. [김정혜]... 수박이 이렇게 날씨가 뜨거우면… 그 양이 없어서." 복날을 앞두고 수요가 많은 닭 가격도 들썩이고... </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 14:00:00 +0900</t>
+          <t>Wed, 16 Jul 2025 07:27:00 +0900</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -951,27 +951,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>한여름에 수박 먹기도 힘들어지나...한통 평균 3만원 넘어</t>
+          <t>[날씨] 전국 대부분 비 내려...중서부지역 중심 집중호우 주의</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.delighti.co.kr/news/articleView.html?idxno=99212</t>
+          <t>https://www.delighti.co.kr/news/articleView.html?idxno=99269</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">서울 송파구 가락동농수산물도매시장에서 시민들이 수박을 구입하고 있다. (사진=연합뉴스)  수박 한 통... 유통업계는 무더운 날씨가 생육에 영향을 미쳐 수박 당도가 떨어지는 경향이 있어 기준치 이상의 물량이... </t>
+          <t xml:space="preserve">(자료사진=연합뉴스) 수요일인 16일은 전국이 대체로 흐리고 비가 내리겠다. 기상청에 따르면 이날... 17일까지 이틀간 예상 강수량은 ▲서울·인천·경기, 대전·세종·충남, 충북중·북부 50∼150㎜(많은 곳 경기남부... </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 11:52:00 +0900</t>
+          <t>Wed, 16 Jul 2025 07:08:00 +0900</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -981,27 +981,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>수박, 평균 소매가 3만원 돌파···전년比 39.8%↑</t>
+          <t>장맛비 전국 확대…수도권 최대 200mm 폭우 주의(오늘날씨)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.ziksir.com/news/articleView.html?idxno=97114</t>
+          <t>https://www.topstarnews.net/news/articleView.html?idxno=15734443</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">지난 ​​​13일 서울 송파구 가락동농수산물도매시장에서 시민들이 수박을 구입하는 모습. [연합뉴스]... 무더운 날씨에 수박 당도가 떨어지는 현상이 나타났고, 당도 기준치를 충족하는 물량이 부족해져 가격이... </t>
+          <t>오늘 지역별 날씨(오전/오후 날씨, 최고기온, 오전/오후 강수확률)는 다음과 같다. ○ 중부지역 서울... 흐리고한때비/흐리고한때비, 최고 29℃, 60%/60% 제주 : 흐리고한때비/흐림, 최고 30℃, 60%/30% [톱스타뉴스=]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 11:06:00 +0900</t>
+          <t>Wed, 16 Jul 2025 06:32:00 +0900</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1011,27 +1011,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>수박 소매가 평균 3만원 돌파…작년보다 40% 비싸</t>
+          <t>"너무 더워" 폭염에 때아닌 호재…유통가 ‘체류 전쟁’ 후끈</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>http://www.newsfc.co.kr/news/articleView.html?idxno=72515</t>
+          <t>https://n.news.naver.com/mnews/article/018/0006066540?sid=101</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲지난 13일 서울 한 대형마트 수박 판매대 모습. 연합뉴스  수박 한 통 평균 소매 가격이 3만원을 돌파한... 유통업계는 무더운 날씨가 생육에 영향을 미쳐 수박 당도가 떨어지는 경향이 있어 기준치 이상의 물량이... </t>
+          <t xml:space="preserve">일시적인 날씨 효과를 넘어 몰링(Malling, 복합 쇼핑몰 체류) 쇼핑 문화의 구조적 전환으로 보고 있다. 백화점 업계는 이에 맞춰 공간형 콘텐츠 강화에 나서고 있다. 현대백화점은 ‘더현대 서울’ 5층에 위치한 실내정원... </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 11:04:00 +0900</t>
+          <t>Wed, 16 Jul 2025 06:02:00 +0900</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1041,27 +1041,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>수박 한 통에 3만원 넘었다···1년 전보다 40% 비싸</t>
+          <t>"폭염에 닭 폐사"…삼계탕 2만원 시대, 상인도 손님도 '울상'</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/033/0000049148?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/421/0008372083?sid=102</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">유통업계는 무더운 날씨가 생육에 영향을 미쳐 수박 당도가 떨어지는 경향이 있어 기준치 이상의 물량이 부족한 상황이라고 본다. 서울 마포의 한 과일가게 주인은 “이달 초만 해도 수박 8㎏짜리를 2만8000... </t>
+          <t xml:space="preserve">날씨가 너무 더워서 닭 폐사를 많이 하니까 가격이 더 오를 수밖에 없다고 하더라"며 "닭 가격이 올랐다고 우리도 삼계탕 가격을 막 올릴 수 없으니 어려움이 크다"고 한숨 지었다. 16일 뉴스1 취재를 종합하면 서울... </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 10:56:00 +0900</t>
+          <t>Wed, 16 Jul 2025 06:00:00 +0900</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1071,27 +1071,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CU, ‘폭염’에서 ‘장마’ 마케팅으로 급전환‧‧‧ 오락가락 도깨비 ...</t>
+          <t>[기상청 전국 오늘날씨] 대체로 흐리고 비...이날 낮 최고기온은 25~30도</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.seoultimes.news/news/article.html?no=2000076121</t>
+          <t>https://www.pinpointnews.co.kr/news/articleView.html?idxno=360087</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">8% 이용 늘어 최대 7천원까지 할인 혜택 늘리고 포켓CU에서 닭강정, 순살치킨 배달 전용 행사도 기획 [서울타임즈뉴스 = 서연옥 기자] CU가 최근 극단적인 날씨 변화 속에 이달 마케팅 전략을 기존 더위에서 장마로 재빨리... </t>
+          <t xml:space="preserve">사진=연합뉴스 수요일  전국이 대체로 흐리고 비가 내리겠다. 16일 기상청에 따르면 이날과 17일은... 다음은 17일 지역별 날씨 전망. [오전, 오후](최저∼최고기온) &amp;lt;오전, 오후 강수 확률&amp;gt; ▲ 서울... </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 10:48:00 +0900</t>
+          <t>Wed, 16 Jul 2025 06:00:00 +0900</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1101,27 +1101,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>이재명 정부 한 달 반…금융업권 하반기 기상도는?</t>
+          <t>오늘부터 주말까지 많은 비…서쪽 최대 200㎜ 폭우</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.straightnews.co.kr/news/articleView.html?idxno=276023</t>
+          <t>https://n.news.naver.com/mnews/article/422/0000760116?sid=103</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">더불어민주당 코스피 5000 특별위원회가 23일 서울 여의도 국회에서 출범식을 열었다. 김병기 당대표 직무대행 겸 원내대표와 오기형 특위 위원장 등 소속 위원들이 기념촬영 하고 있다. 연합뉴스. 대형 증권사의 평균... </t>
+          <t xml:space="preserve">목요일까지 예상 강수량은 경기 남부와 충남 서해안이 200㎜ 이상, 강원과 충북, 전북이 150㎜ 이상, 서울 등... 연합뉴스TV 임하경입니다. [영상취재 신용희] [영상편집 강내윤] [그래픽 허진영] #날씨 #기상청 #폭우 #호우... </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 10:48:00 +0900</t>
+          <t>Wed, 16 Jul 2025 05:38:00 +0900</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1131,27 +1131,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[PICK &amp; FIT] K2, 자연 감성 담은 '포레스트 그래픽 티셔츠' 출시 등</t>
+          <t>[출근길 날씨] 대부분 지역 비… 수도권 등 일부 지역 강하고 많은 비</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>http://www.mkhealth.co.kr/news/articleView.html?idxno=74129</t>
+          <t>https://www.asiatime.co.kr/article/20250715500391</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">노성훈 K2 상품기획팀 이사는 "더운 날씨에도 쾌적하게 입을 수 있는 기능성 티셔츠를 찾는 소비자에게... 서울 성수동을 비롯한 전국 지역에서 연 매출 10억원 이하 또는 상시 근로자 5인 미만의 소상공인이라면 신청... </t>
+          <t xml:space="preserve">서울 시내에서 한 시민이 소나기를 피하고 있다(사진=연합뉴스) 기상청에 따르면 이날 예상 강수량은 서울·인천·경기 50~150㎜, 서해5도 10~40㎜, 강원내륙·산지 50~100㎜, 강원동해안 5~40㎜, 대전·세종·충남 50~150... </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 10:48:00 +0900</t>
+          <t>Wed, 16 Jul 2025 05:02:00 +0900</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1161,27 +1161,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>수박값, 열흘 새 6천원 폭등…전통시장서도 3만원 넘어</t>
+          <t>진짜 장마가 온다…오늘부터 최대 200㎜ 물폭탄[오늘날씨]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>http://www.seouleconews.com/news/articleView.html?idxno=84887</t>
+          <t>https://n.news.naver.com/mnews/article/018/0006066512?sid=103</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">지난 13일 서울 가락동농수산물도매시장에서 시민들이 수박을 사고 있다./연합뉴스 수박 한 통 평균 소매가격이 3만원을 넘었다. 무더운 날씨가 생육에 영향을 미쳐 공급 물량은 부족한 반면 폭염 속에 수요는... </t>
+          <t xml:space="preserve">16일 오후 서울 중구 남대문로 일대에서 우산을 쓴 시민들이 발걸음을 재촉하고 있다.(사진=뉴스1) 기상청은 이날 아침최저기온은 19~24도, 낮최고기온은 26~31도로 예상된다고 밝혔다. 기온은 평년(최저 20~23도, 최고... </t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 10:46:00 +0900</t>
+          <t>Wed, 16 Jul 2025 05:01:00 +0900</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1191,27 +1191,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>류경수, 연극까지 섭렵⋯천의 얼굴 입증</t>
+          <t>[오늘의 날씨] 중부와 전라권 200mm 넘는 폭우…16일 오후 전국 비 확대</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>http://www.joynews24.com/view/1865434</t>
+          <t>https://www.topstarnews.net/news/articleView.html?idxno=15734412</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">배우 류경수가 '야당', '미지의 서울', '노이즈', '디 이펙트'에서 열연하고 있다. [사진=고스트스튜디오]... 특히 광기 서린 눈빛과 차분한 말투로 협박하는 류경수는 무더운 날씨를 한순간에 잊게 했다. 여기에 류경수는... </t>
+          <t>경기남부에 10mm~40mm, 서울·인천·경기북부 5mm~20mm가 내릴 것으로 보인다. 강원남부내륙·산지는 20mm~60mm... 강도가 변동될 수 있으므로, 최신 기상정보의 지속적인 확인과 안전 확보가 필요하다. [톱스타뉴스=]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 10:28:00 +0900</t>
+          <t>Wed, 16 Jul 2025 04:46:00 +0900</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1221,27 +1221,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>수박 한 통에 4만원?… 폭염이 부른 '금수박'</t>
+          <t>날씨, 서울·수도권 폭우 "200mm이상 많은비" 대전·광주날씨 "천둥번개...</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/022/0004051755?sid=101</t>
+          <t>https://www.gukjenews.com/news/articleView.html?idxno=3325882</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">서울 마포의 한 과일가게 주인은 “이달 초만 해도 수박 8㎏짜리를 2만8000∼2만9000원 받았는데 지금은 3만7000원에 판다”고 말했다. 뉴스1 그는 “9㎏짜리는 4만원은 받아야 하는데 3만9000원” 이라면서 “날씨가... </t>
+          <t xml:space="preserve">천둥번개 동반한 비스케치, 날씨 (사진=국제뉴스DB) 기상청은 수요일인 16일 전국날씨 낮최고기온 서울 28도, 대전 27도, 광주 28도, 강릉 31도, 대구 28도, 부산 28도, 제주도 31도를 기록하며 무더위날씨가... </t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 10:28:00 +0900</t>
+          <t>Wed, 16 Jul 2025 04:26:00 +0900</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1251,27 +1251,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[아침뉴스타임 날씨] 오늘도 전국 곳곳에 비…강풍·벼락 주의</t>
+          <t>[오늘 날씨] 전국 흐리고 비…많은 곳 최대 200㎜ 이상 '유의'</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011989428?sid=103</t>
+          <t>https://www.newsworks.co.kr/news/articleView.html?idxno=803650</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">서울은 오늘과 내일, 모레 목요일 계속 28도에 머물러 평년 수준과 비슷하겠습니다. 하지만 비가 그친 직후에는 습도가 높아 최고 체감온도가 31도 안팎까지 오르면서 후텁지근하겠습니다. 날씨 전해드렸습니다.... </t>
+          <t>최고 기온은 ▲서울 28도 ▲인천 26도 ▲춘천 27도 ▲강릉 31도 ▲대전 27도 ▲청주 28도 ▲광주 28도 ▲전주 28도 ▲대구 28도 ▲부산 28도 ▲제주 31도다. [뉴스웍스=]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 10:27:00 +0900</t>
+          <t>Wed, 16 Jul 2025 04:00:00 +0900</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1281,27 +1281,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>"팬 3000여명 몰렸다"…네오위즈 '브라운더스트2', 2주년 행사 성료</t>
+          <t>[오늘 날씨] 전국 흐리고 비…경기남부 최대 200㎜ '물폭탄'</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.joongangenews.com/news/articleView.html?idxno=434843</t>
+          <t>https://www.youthdaily.co.kr/news/article.html?no=189870</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">|중앙이코노미뉴스 엄현식 기자|  네오위즈(공동대표 김승철, 배태근)는 자사가 서비스하고 ㈜겜프스엔... 이번 행사는 지난 6월 27일부터 7월 13일까지 서울 건대입구역 스타시티몰 '브이스퀘어'에서 열렸다.... </t>
+          <t>먼바다(해안선에서 약 200㎞ 내 먼바다) 파고는 동해 0.5∼3.5m, 서해 0.5∼2.5m, 남해 0.5∼2.0m로 예상된다. 【 청년일보=조성현 기자 】 서울 영등포구 여의도 국회에서 시민들이 우산을 쓰고 있다. [사진=연합뉴스]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 10:18:00 +0900</t>
+          <t>Wed, 16 Jul 2025 03:02:00 +0900</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1311,27 +1311,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>최휘영 문체부 후보자 "관광계 환영 감사…임명되면 소통하겠다"</t>
+          <t>기상청 서울날씨 "200mm이상 물폭탄" 대전·충청 폭우</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/421/0008370145?sid=103</t>
+          <t>https://www.gukjenews.com/news/articleView.html?idxno=3325876</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">이날 서울은 새벽까지 내린 비로 인해 오전 내내 흐린 날씨가 이어졌다. 최 후보자는 오전 9시 넘어 사무실에 도착해 짧게 인사를 건넨 뒤 뉴스1의 간단한 취재 요청에 응했다. 관광업계에서 "환영한다"는 반응이 이어지는... </t>
+          <t xml:space="preserve">천둥번개를 동반한 비스케치 (사진=국제뉴스DB) 북쪽에서 기압골이 내려와 습윤역이 압축되고... * 예상 강수량(16~17일) - (수도권) 서울.인천.경기: 50~150mm(많은 곳 경기남부 200mm 이상)/ 서해5도: 10~40mm... </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 10:12:00 +0900</t>
+          <t>Wed, 16 Jul 2025 00:06:00 +0900</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1341,27 +1341,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>서울 이색데이트 추천, 예술과 자연이 어우러진 도심 속 명소</t>
+          <t>[오늘의 날씨] 전국 천둥·번개 동반 비…침수·하천 범람 대비하세요</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.topstarnews.net/news/articleView.html?idxno=15733172</t>
+          <t>http://www.kdfnews.com/news/articleView.html?idxno=161131</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>감상하며 날씨와 관계없이 쾌적한 데이트를 즐길 수 있다. 여의도에 위치한 더현대 서울은 쇼핑과 문화를... 전시, 팝업 스토어 등을 통해 실내에서도 특별한 데이트 시간을 보낼 수 있는 장소로 주목받고 있다. [톱스타뉴스=]</t>
+          <t xml:space="preserve">사진=연합뉴스 16∼17일 이틀간 예상 강수량은 경기남부, 강원 남부 내륙·산지, 충청권 50∼100㎜(많은 곳 150㎜ 이상), 서울·인천·경기 북부, 강원 중북부 내륙·산지, 전북 30∼80㎜(많은 곳 전북 서해안 120㎜ 이상)... </t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 09:42:00 +0900</t>
+          <t>Wed, 16 Jul 2025 00:06:00 +0900</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1371,27 +1371,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>폐지 줍는 노인···땡볕에 200kg 넘는 손수레 끌어 만원</t>
+          <t>서울 등 수도권 최대 200mm 물폭탄… 한낮 최고 31도 [오늘날씨]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>http://news.lghellovision.net/news/articleView.html?idxno=513006</t>
+          <t>https://www.bntnews.co.kr/article/view/bnt202507150172</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">나는 날씨입니다. 이곳의 표면 온도를 재봤습니다. 35도를 넘어섰습니다. 폐지를 주워 생활하는 노인들이... "] 서울시는 폭염 대책으로 폐지 줍는 노인에게 냉토시 등을 지원하고 있지만 현장에서는 제대로 활용되지 않고... </t>
+          <t>©서울, 서울날씨, 오늘날씨, 내일날씨 수요일인 오늘(16일) 날씨는 전국이 대체로 흐린 가운데... 아침 최저기온은 23~26도, 낮 최고기온은 30~35도가 되겠다. bnt뉴스 라이프팀 기사제보</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 09:24:00 +0900</t>
+          <t>Wed, 16 Jul 2025 00:02:00 +0900</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1401,27 +1401,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[날씨] 전국 곳곳 비 계속…국지적으로 강한 비도</t>
+          <t>내일날씨, 서울·충청 "200mm이상 많은비" 무더위는 주춤</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.joongangenews.com/news/articleView.html?idxno=434759</t>
+          <t>https://www.gukjenews.com/news/articleView.html?idxno=3325854</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">|중앙이코노미뉴스 엄현식 기자|14일 오후 대전시 서구 둔산동 보라매공원을 지나는 시민들이 비를... 오전 8시 기준 주요 도시 기온은 서울 22도, 인천 21도, 대전 21.4도, 광주 22도, 대구 22.5도, 울산 22.2도, 부산 23.... </t>
+          <t xml:space="preserve">비스케치, 천둥번개 동반한 소나기 (사진=국제뉴스DB) 기상청은 수요일인 16일 새벽(00~06시)부터... 있겠다고 날씨예보했다. * 예상 강수량(16~17일) - (수도권) 서울.인천.경기: 50~150mm(많은 곳 경기남부 200mm 이상)... </t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 08:56:00 +0900</t>
+          <t>Tue, 15 Jul 2025 23:08:00 +0900</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1431,27 +1431,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>수박, 전통시장서 평균 3만원 돌파…열흘새 6천원 올라</t>
+          <t>[날씨] 16일부터 전국에 강하고 많은 비…곳곳 '물폭탄' 우려</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>http://www.tjb.co.kr/sub0301/bodo/view/id/79493</t>
+          <t>http://www.newskr.kr/news/articleView.html?idxno=99956</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">서울 가락시장에서 수박을 고르는 시민 수박 한 통 평균 소매 가격이 최근 하루가 다르게 뛰면서 3만원을... 3만9천원"이라면서 "날씨가 더워 당도가 올라오지 않은 탓에 물량이 부족하다"고 연합뉴스에 말했습니다.... </t>
+          <t xml:space="preserve">폭염 뒤 비 내리는 서울. [사진=뉴스1] 수요일인 16일부터 수도권 등 서쪽 지역을 중심으로 '강하고 많은 비'가 내릴 것으로 예상된다. 기상청은 오는 16일 새벽부터 경기 북동부와 강원 내륙 산지 등에서 비가... </t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 08:34:00 +0900</t>
+          <t>Tue, 15 Jul 2025 22:28:00 +0900</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1461,27 +1461,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>'컴백' 윤산하 "팬들 실망 안 시킬 무대, 자신 있어요"[EN:터뷰]</t>
+          <t>[뉴스9 날씨] 내일 전국 비…중부 집중호우</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/079/0004044812?sid=103</t>
+          <t>https://n.news.naver.com/mnews/article/056/0011990000?sid=103</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">지난 3일 서울 강남구의 한 카페에서 열린 라운드 인터뷰에서, 윤산하는 새 앨범 준비 과정을 하나하나... 윤산하는 '엑스트라 버진'을 두고 "딱 여름 날씨에 조금 시원한 느낌을 받으실 수 있는 곡"이라며 "반복되는... </t>
+          <t>서울과 청주 28도로 예상됩니다. 전주와 광주도 28도에 머물러 오늘과 비슷하겠습니다. 영남 지역도 아침... 데다 습도까지 높아져 후텁지근해지겠습니다. 날씨였습니다. 강아랑 기상캐스터/그래픽:한세희/진행:김명진</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 08:02:00 +0900</t>
+          <t>Tue, 15 Jul 2025 21:59:00 +0900</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1491,27 +1491,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[성상영의 正주행] 볼보 EX30, 작은 고추가 매운 이유</t>
+          <t>[내일 날씨] “우산 꼭 챙기세요” 하루종일 비 소식…수도권 오후부터...</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>http://www.thebigdata.co.kr/view.php?ud=2025071419172523165ed985c7c5_23</t>
+          <t>https://www.etoday.co.kr/news/view/2488023</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>요즘 같이 무더운 날씨만 아니면 1회 완충으로 서울-부산 완주도 노려 볼 만하다. 덧붙이자면 서울에서 인천... 뒷좌석 창문을 열기 위해 '리어' 버튼을 따로 눌러야 하는 정도는 애교 수준이다. 성상영 빅데이터뉴스 기자 ,</t>
+          <t xml:space="preserve">15일 연합뉴스에 따르면 내일 새벽부터 경기 북동부와 강원 중·북부 내륙·산지에 비가 내리기 시작하고... 내일부터 17일까지 이틀간 예상 강수량은 서울·인천·경기, 대전·세종·충남 50∼150㎜(많은 곳 경기 남부... </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 08:00:00 +0900</t>
+          <t>Tue, 15 Jul 2025 20:50:00 +0900</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1521,27 +1521,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[오늘 날씨] 인천 등 전국 천둥·번개 동반한 비…낮 최고기온 예년과 ...</t>
+          <t>폭염 꺾이니 호우‥물가 들썩, 수박 한 통 3만 원 넘었다</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.incheonilbo.com/news/articleView.html?idxno=1296135</t>
+          <t>https://n.news.naver.com/mnews/article/214/0001436493?sid=101</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲ 비가 내린 지난 14일 서울 종로구 광화문광장에서 시민들이 이동하고 있다. /연합뉴스 화요일인... 다음은 15일 지역별 날씨 전망. [오전, 오후](최저∼최고기온) ▲ 서울 : [흐리고 비, 흐리고 한때 비] (21∼28)... </t>
+          <t xml:space="preserve">◀ 리포트 ▶ 서울의 한 대형마트. 매대 앞에 선 주부가 배추를 들었다 놨다 한참을 망설입니다. [김정혜]... 수박이 이렇게 날씨가 뜨거우면‥그 양이 없어서." 복날을 앞두고 수요가 많은 닭 가격도 들썩이고 있습니다.... </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 07:10:00 +0900</t>
+          <t>Tue, 15 Jul 2025 20:20:00 +0900</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1551,27 +1551,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[날씨] "우산 챙기세요"...대부분 지역 비 내리다 밤에 그쳐</t>
+          <t>[날씨]내일~모레 전국 비…중부 최고 200mm↑폭우</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.delighti.co.kr/news/articleView.html?idxno=99199</t>
+          <t>https://n.news.naver.com/mnews/article/057/0001896930?sid=102</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">(사진=연합뉴스) 화요일인 15일 전국이 대체로 흐리고 대부분 지역에서 비가 내리겠다. 기상청에 따르면... 오전 6시 현재 주요 도시 기온은 ▲서울 21.5도 ▲인천 21.0도 ▲수원 20.9도 ▲춘천 20.1도 ▲강릉 19.6도... </t>
+          <t>비는 토요일까지 이어지는 곳이 많겠고요. 일요일부터는 서울의 낮 기온이 33도 안팎까지 오르겠습니다. 날씨였습니다. (김다영 기상캐스터) #MBN #날씨 #김다영 #폭우 #강풍 #뉴스7 #MBN날씨 #기상캐스터</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 06:58:00 +0900</t>
+          <t>Tue, 15 Jul 2025 20:20:00 +0900</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1581,27 +1581,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>수박, 전통시장서 평균 3만원 넘어…열흘새 5천원 올라</t>
+          <t>[기상청 전국 내일날씨] 매우 강하고 많은 비... 낮 최고기온 26∼31도</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.slist.kr/news/articleView.html?idxno=660111</t>
+          <t>https://www.pinpointnews.co.kr/news/articleView.html?idxno=360075</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">서울 마포의 한 과일가게 주인은 "이달 초만 해도 수박 8㎏짜리를 2만8천∼2만9천원 받았는데 지금은... 3만9천원"이라면서 "날씨가 더워 당도가 올라오지 않은 탓에 물량이 부족하다"고 연합뉴스에 말했다. 무더위에... </t>
+          <t xml:space="preserve">요란한 소나기 사진=연합뉴스. 수요일 전국 곳곳에 매우 강하고 많은 비가 내리겠다. 16일 기상청에... 다음은 16일 지역별 날씨 전망. [오전, 오후](최저∼최고기온) &amp;lt;오전, 오후 강수 확률&amp;gt; ▲ 서울 : [흐리고... </t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 06:46:00 +0900</t>
+          <t>Tue, 15 Jul 2025 20:12:00 +0900</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1611,27 +1611,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>"김밥 먹고 췌장 수치까지 높아져"…폭염에 식중독 '비상'</t>
+          <t>[날씨]중부 중심 물폭탄…모레까지 최대 200mm↑</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000759708?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/449/0000314941?sid=103</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">올해는 덥고 습한 날씨가 일찍 찾아와 식중독에도 각별한 주의가 필요합니다. 특히 달걀이 들어간 음식을... &amp;lt;김경우/서울백병원 가정의학과 교수&amp;gt; "계란 껍질 표면에 오염돼있는 경우가 많으므로, 깨진 달걀을... </t>
+          <t>주 후반에는 습도와 함께 기온이 올라 무덥겠습니다. 내일 아침 기온은 서울 23도에서 시작하고요. 낮 기온은 서울 28도, 강릉 31도까지 오릅니다. 채널A 뉴스 날씨였습니다. 마지현 기상캐스터</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 06:38:00 +0900</t>
+          <t>Tue, 15 Jul 2025 20:02:00 +0900</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1641,27 +1641,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>폭염에 수박값 들썩…전통시장서 평균 3만원 돌파</t>
+          <t>중부·충남 이틀간 200㎜ 물 폭탄…내일 밤부터 고비</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.goodnews1.com/news/articleView.html?idxno=449542</t>
+          <t>https://n.news.naver.com/mnews/article/057/0001896893?sid=102</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">서울 마포의 한 과일가게 주인은 "이달 초만 해도 수박 8㎏짜리를 2만8천∼2만9천원 받았는데 지금은... 3만9천원"이라면서 "날씨가 더워 당도가 올라오지 않은 탓에 물량이 부족하다"고 연합뉴스에 말했다. 그러면서... </t>
+          <t xml:space="preserve">서울엔 낮 한때 쏟아진 소나기가 그치고 체감 27.7도의 습한 날씨가 찾아왔습니다. ▶ 인터뷰 : 채종석 / 경기... MBN뉴스 김민수입니다. 영상취재 : 김영진 기자 영상편집 : 이범성 그 래 픽 : 고현경 #MBN... </t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 06:32:00 +0900</t>
+          <t>Tue, 15 Jul 2025 19:08:00 +0900</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1671,27 +1671,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[오늘날씨] '폭염 주춤' 전국 대부분 지역 비...최대 100mm 이상</t>
+          <t>[백투더 주간한국] '역대급 폭염'…50년 전에도 그랬다</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.newspim.com/news/view/20250714001079</t>
+          <t>https://weekly.hankooki.com/news/articleView.html?idxno=7119723</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">[서울=뉴스핌] 김학선 기자 = 비가 내리면서 2주 넘게 이어지던 폭염이 잠시 주춤해진 14일 서울 광화문광장에서 시민들과 관광객들이 우산을 쓰고 있다. 2025.07.14 yooksa@newspim.com 아침 최저기온은 21~24도, 낮... </t>
+          <t xml:space="preserve">사진=연합뉴스  올여름도 숨 막히는 날씨가 계속되고 있습니다. 서울은 지난 8일 한낮 기온이 37.8도까지 치솟으면서 1908년 기상 관측을 시작한 이후 역대 최고 기록을 갈아치웠습니다. 종전 최고 기온은 1939년 7월 9일의... </t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 06:30:00 +0900</t>
+          <t>Tue, 15 Jul 2025 18:44:00 +0900</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1701,27 +1701,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>전국 흐리고 곳곳 비…서울 낮 최고 31도, 밤엔 대부분 그쳐(오늘날씨)</t>
+          <t>내일부터 전국 많은 비…서쪽 최대 200㎜ 폭우</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.topstarnews.net/news/articleView.html?idxno=15732996</t>
+          <t>https://n.news.naver.com/mnews/article/422/0000760012?sid=103</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>더운 날씨를 보이겠다. 지역별로 서울은 반소매에 얇은 긴팔 겉옷을 챙기는 것이 좋고, 대구나... 최고 28℃, 60%/60% 제주 : 흐리고한때비/흐리고한때비, 최고 30℃, 60%/60% [톱스타뉴스=]</t>
+          <t xml:space="preserve">목요일까지 예상 강수량은 경기 남부와 충남 서해안이 200㎜ 이상, 강원과 충북, 전북이 150㎜ 이상, 서울 등... 연합뉴스TV 임하경입니다. [영상취재 신용희] [영상편집 강내윤] [그래픽 허진영] #날씨 #기상청 #폭우 #호우... </t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 06:26:00 +0900</t>
+          <t>Tue, 15 Jul 2025 18:20:00 +0900</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1731,27 +1731,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>수박, 전통시장서 평균 3만원 돌파…열흘새 6천원 올라</t>
+          <t>[내일 날씨] 전국 흐리고 비...낮 최고기온 31도</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/001/0015507032?sid=101</t>
+          <t>https://www.ajunews.com/view/20250715175754632</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">서울 마포의 한 과일가게 주인은 "이달 초만 해도 수박 8㎏짜리를 2만8천∼2만9천원 받았는데 지금은... 3만9천원"이라면서 "날씨가 더워 당도가 올라오지 않은 탓에 물량이 부족하다"고 연합뉴스에 말했다. 그러면서... </t>
+          <t xml:space="preserve">[사진=연합뉴스] 수요일인 16일은 전국이 대체로 흐리고 비가 내리겠다. 지역에 따라 천둥과 번개... 이상), 서울·인천·경기 북부, 강원 중북부 내륙·산지, 전북 30~80㎜(많은 곳 전북 서해안 120㎜ 이상), 경북... </t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 06:25:00 +0900</t>
+          <t>Tue, 15 Jul 2025 18:06:00 +0900</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1761,27 +1761,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>"흥의 민족인데 어째서"… 대부분 거리 공연은 여전히 '불법'</t>
+          <t>[내일 날씨] 전국 천둥번개 동반한 비…비 내리며 더위 주춤</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/421/0008369561?sid=102</t>
+          <t>https://www.newsworks.co.kr/news/articleView.html?idxno=803644</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">낮 최고 36도를 기록할 정도로 무더운 날씨였지만, 공연이 이뤄지던 청계천 일대엔 산들바람이 솔솔 불었다.... 길거리 공연, 대부분은 현행법상 '불법'…아쉬움 표하는 시민들 15일 뉴스1 취재를 종합하면 서울시설공단... </t>
+          <t>최고 기온은 ▲서울 28도 ▲인천 26도 ▲춘천 27도 ▲강릉 31도 ▲대전 27도 ▲청주 28도 ▲광주 28도 ▲전주 28도 ▲대구 28도 ▲부산 28도 ▲제주 31도다. [뉴스웍스=]</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 06:10:00 +0900</t>
+          <t>Tue, 15 Jul 2025 18:04:00 +0900</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1791,27 +1791,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[기상청 전국 오늘날씨] 흐리고 가끔 비... 낮 최고기온 25∼31도</t>
+          <t>[퇴근길 날씨] 전국 밤까지 산발적 비… 한풀 꺾인 더위</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.pinpointnews.co.kr/news/articleView.html?idxno=359742</t>
+          <t>https://www.asiatime.co.kr/article/20250715500388</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">사진=연합뉴스. 화요일 전국이 대체로 흐리고 가끔 비가 내리겠다. 15일 기상처엥 따르면 예상... 오전 5시 현재 기온은 서울 21.6도, 인천 21.0도, 수원 20.8도, 춘천 20.2도, 강릉 20.4도, 청주 21.7도, 대전 20.4도... </t>
+          <t xml:space="preserve">(사진=연합뉴스) 기상청에 따르면 이날 예상 강수량은 서울∙인천∙경기 5~20㎜, 강원내륙∙산지 5~30㎜, 강원동해안 5~10㎜, 충북 5~20㎜, 대전∙세종∙충남 5㎜ 내외, 전북 5~10㎜, 대구∙경북 10~60㎜, 부산∙울산... </t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 05:58:00 +0900</t>
+          <t>Tue, 15 Jul 2025 17:44:00 +0900</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1821,27 +1821,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>김밥집에 학교급식에서도…폭염에 식중독 '초비상'</t>
+          <t>[내일날씨] 전국 시간당 30~50mm 강한 비...많은 곳 최대 200mm 이상</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000759695?sid=102</t>
+          <t>https://www.newspim.com/news/view/20250715001104</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">올해는 덥고 습한 날씨가 일찍 찾아와 식중독에도 각별한 주의가 필요합니다. 특히 달걀이 들어간 음식을... &amp;lt;김경우/서울백병원 가정의학과 교수&amp;gt; "계란 껍질 표면에 오염돼있는 경우가 많으므로, 깨진 달걀을... </t>
+          <t xml:space="preserve">[서울=뉴스핌] 김학선 기자 = 비가 내리면서 2주 넘게 이어지던 폭염이 잠시 주춤해진 14일 서울 광화문광장에서 시민들과 관광객들이 우산을 쓰고 있다. 2025.07.14 yooksa@newspim.com 이 밖에 강원 중부와... </t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 05:52:00 +0900</t>
+          <t>Tue, 15 Jul 2025 17:30:00 +0900</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1851,27 +1851,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[출근길 날씨] 흐리고 비⋯ 오후 최고 31도 '끈적한 무더위'</t>
+          <t>[내일 날씨] 전국 곳곳서 천둥·번개와 돌풍 동반한 비</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.asiatime.co.kr/article/20250714500384</t>
+          <t>https://www.joongangenews.com/news/articleView.html?idxno=435029</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">15일 전국이 대체로 흐리고 비가 내려 습한 날씨가 되겠다. 제주시 삼양해수욕장 해변에서 도민과 관광객들이 우산을 쓰고 산책하고 있다.(사진=연합뉴스) 기상청에 따르면 이날 이날 예상 강수량은 서울∙인천... </t>
+          <t xml:space="preserve">|중앙이코노미뉴스 엄현식 기자|[사진=연합]  수요일인 16일은 전국이 대체로 흐리고 비가 내리겠다.... 지역별 날씨 전망으로 서울 23~28도, 인천 23~26도, 수원 22~27도, 춘천 21~27도, 강릉 24~31도, 청주 23~28도... </t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 05:02:00 +0900</t>
+          <t>Tue, 15 Jul 2025 17:20:00 +0900</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1881,27 +1881,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>폭염·폭우 극한 날씨에 여기저기 땅꺼짐…올여름도 발밑 '불안'</t>
+          <t>내일부터 전국 다시 많은 비…중부 최대 200㎜</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/079/0004044794?sid=103</t>
+          <t>https://n.news.naver.com/mnews/article/422/0000759971?sid=103</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">여름의 막바지였던 지난해 8월 서울 서대문구 연희동 4차선 도로에 차 한 대가 통째로 빠질 정도의 땅꺼짐이... ※CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우, 사건사고와 미담 등 모든... </t>
+          <t>서울 등 수도권에도 최대 150㎜, 전남과 영남은 80㎜ 안팎의 비가 예상됩니다. 연일 비가 이어지면서 폭염은... 연합뉴스TV 임하경입니다. [영상편집 강내윤] #날씨 #기상청 #폭우 #호우 #집중호우 #장마</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 05:02:00 +0900</t>
+          <t>Tue, 15 Jul 2025 17:18:00 +0900</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1911,27 +1911,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[오늘의 날씨] 전국 대부분 최대 60mm 비…16일 오후 서쪽 100mm 이상 집중</t>
+          <t>서쪽지역 중심 매우 많은 비… 당분간 전국 강풍 유의 [내일날씨]</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.topstarnews.net/news/articleView.html?idxno=15732930</t>
+          <t>https://www.bntnews.co.kr/article/view/bnt202507150142</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">서울·인천·경기북부, 강원중·북부내륙·산지, 전북, 전남북부서해안은 각각 30mm~80mm(최대 120mm), 나머지... 무더운 날씨가 이어질 것으로 보인다. 끝으로 당분간 저기압과 북태평양고기압 변화로 강수 지역과 시점... </t>
+          <t>©서울, 서울날씨, 오늘날씨, 내일날씨 오늘(15일) 날씨는 전국이 대체로 흐리고 대부분 지역에 가끔... 아침 최저기온은 23~26도, 낮 최고기온은 30~35도가 되겠다. bnt뉴스 라이프팀 기사제보</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 04:56:00 +0900</t>
+          <t>Tue, 15 Jul 2025 17:12:00 +0900</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1941,27 +1941,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>날씨, 강원 "최대 100mm이상 많은비" 서울·부산 28도 더위 주춤</t>
+          <t>"물폭탄 쏟아진다" 최대 200mm…중부지방 집중호우[내일날씨]</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.gukjenews.com/news/articleView.html?idxno=3324812</t>
+          <t>https://n.news.naver.com/mnews/article/018/0006066360?sid=103</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">비스케치, 날씨, 폭우, 태풍 (국제뉴스DB) 기상청은 화요일인 15일 전국날씨 낮최고기온은 서울 28도, 대전 27도, 광주 28도, 강릉 29도, 대구 28도, 부산 28도, 제주도 29도를 기록하며 무더위가 주춤하는... </t>
+          <t xml:space="preserve">서울을 포함한 수도권 곳곳에서 시간당 최대 30~50㎜의 비가 집중적으로 오는 곳이 있으니 유의해야겠다. 연일 찜통더위가 이어지고 있는 8일 전북 완주군 삼봉로 일원에 소나기가 쏟아지고 있다. (사진=뉴스1)... </t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 04:16:00 +0900</t>
+          <t>Tue, 15 Jul 2025 17:01:00 +0900</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -1971,27 +1971,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[오늘 날씨] 전국 비오면서 무더위 주춤…낮 최고 서울·대구·제주 29도</t>
+          <t>정부 "배추 생산량 줄면 비축 물량 하루 100톤~250톤씩 푼다"</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.newsworks.co.kr/news/articleView.html?idxno=803489</t>
+          <t>https://www.delighti.co.kr/news/articleView.html?idxno=99247</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>최고 기온은 ▲서울 29도 ▲인천 28도 ▲춘천 29도 ▲강릉 28도 ▲대전 27도 ▲청주 28도 ▲광주 28도 ▲전주 28도 ▲대구 29도 ▲부산 28도 ▲제주 29도다. [뉴스웍스=]</t>
+          <t xml:space="preserve">서울 시내의 한 대형마트.  (사진=연합뉴스)  정부는 이상기후 여파로 여름철 배추 수급이 불안해지면 비축 배추 등을 시장에 하루 100∼250톤씩 방출하기로 했다. 농림축산식품부는 최근 폭염, 호우 등 급변하는 날씨에... </t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 04:00:00 +0900</t>
+          <t>Tue, 15 Jul 2025 16:52:00 +0900</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -2001,27 +2001,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[오늘 날씨] "기온 내려도 습하고 덥다"…전국 비 속 한낮 26~31도</t>
+          <t>전국 대부분 '강하고 많은 비'…서울 낮 31도, 폭우 대비 철저히 (내일날...</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.youthdaily.co.kr/news/article.html?no=189772</t>
+          <t>https://www.topstarnews.net/news/articleView.html?idxno=15733910</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>14~15일 예상 강수량은 강원영동중·북부 30~80㎜(많은 곳 강원영동북부 100㎜ 이상), 서울·인천·경기... 5∼2.5m로 예측된다. 【 청년일보=조성현 기자 】 시민들이 비를 피하기 위해 우산을 쓰고 있다. [사진=연합뉴스]</t>
+          <t>(오전/오후 날씨, 최저/최고기온, 오전/오후 강수확률)는 다음과 같다. ○ 중부지역 서울 : 흐리고가끔비... 포항 : 흐리고한때비/흐리고비, 23℃/30℃, 60%/60% 제주 : 흐리고한때비/흐림, 24℃/31℃, 60%/30% [톱스타뉴스=]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 03:00:00 +0900</t>
+          <t>Tue, 15 Jul 2025 16:46:00 +0900</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -2031,27 +2031,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[오늘의 날씨] 전국 흐리고 비…강원 영동 중·북부 호우특보 가능성</t>
+          <t>서울 오후 흐림, 현재 기온 25.6도…습도 75%</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>http://www.kdfnews.com/news/articleView.html?idxno=161039</t>
+          <t>https://www.joongangenews.com/news/articleView.html?idxno=435002</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">사진=연합뉴스 강원 영동 중·북부는 돌풍·천둥·번개를 동반한 시간당 30∼50㎜의 매우 강한 비가... 20∼60㎜, 서울·인천·경기, 강원 영서, 충청권, 전라권 10∼50㎜, 서해5도, 제주도 5∼20㎜다. 아침 최저기온은 19... </t>
+          <t xml:space="preserve">|중앙이코노미뉴스 이상민 기자|출처=한국관광공사  7월 15일 오후 기준 서울특별시 현재 기온은 25.6도이며, 전날보다 2.3도 상승했다. 체감온도는 27.2도로 다소 더운 편이며, 날씨는 종일 흐림 상태를 유지하고 있다.... </t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 00:06:00 +0900</t>
+          <t>Tue, 15 Jul 2025 15:30:00 +0900</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -2061,27 +2061,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>서울·인천·경기 최대 60mm 비… 그친 뒤 다시 폭염 [오늘날씨]</t>
+          <t>[내일날씨] 서울 오전 23도 흐리고 가끔 비…오후 28도까지 올라</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.bntnews.co.kr/article/view/bnt202507140176</t>
+          <t>https://www.joongangenews.com/news/articleView.html?idxno=434994</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>©서울, 서울날씨, 오늘날씨, 내일날씨 화요일인 오늘(15일) 전국이 대체로 흐린 가운데, 전국 대부분... 아침 최저기온은 23~26도, 낮 최고기온은 30~34도가 되겠다. bnt뉴스 라이프팀 기사제보</t>
+          <t xml:space="preserve">|중앙이코노미뉴스 이상민 기자|출처=한국관광공사 내일인 7월 16일에 서울특별시 최저기온은 23도, 오후 최고기온은 28도로 예상된다. 하늘은 종일 흐릴 것으로 보이며, 오전에는 가끔 비, 오후에는 본격적인 비가 내릴... </t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 00:02:00 +0900</t>
+          <t>Tue, 15 Jul 2025 15:20:00 +0900</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -2091,27 +2091,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>'동상이몽' 아내 박정은에 500번 무릎 꿇는 한상진→박하나♥김태술 야...</t>
+          <t>3만원 넘더니 4만원 가는 중…폭염에 '귀족 과일'된 수박</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.topstarnews.net/news/articleView.html?idxno=15732691</t>
+          <t>https://n.news.naver.com/mnews/article/277/0005622788?sid=101</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>김숙은 "날씨도 좋고 할머니의 컨디션도 너무 좋아서 다행"이라고 말했다. 박하나는 "완벽한 드라마 같았다"고 감동했다. 한편 SBS 예능 '동상이몽2'는 매주 월요일 밤 10시 10분에 방송된다. [톱스타뉴스=]</t>
+          <t xml:space="preserve">서울 마포의 한 과일가게 주인은 연합뉴스에 "이달 초만 해도 수박 8㎏짜리를 2만8000~2만9000원 받았는데 지금은 3만7000원에 판다"고 말했다. 그는 "9㎏짜리는 4만원은 받아야 하는데 3만9000원"이라면서 "날씨가 더워... </t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Tue, 15 Jul 2025 00:00:00 +0900</t>
+          <t>Tue, 15 Jul 2025 14:42:00 +0900</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -2121,27 +2121,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>서울에서 바나나가?…폭염에 도심 한복판서 열매</t>
+          <t>7월 16일 내일 날씨, 전국 대부분 지역 흐림→비…예상 강수량-기온 보...</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000759657?sid=101</t>
+          <t>https://www.topstarnews.net/news/articleView.html?idxno=15733666</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">역대급 폭염에 극한 폭우까지, 고온다습한 날씨가 이어지면서 서울 도심 한복판에서 바나나가 열리는... 이제 '서울산' 아열대 작물도 식탁에 오를 거라는 전망이 나옵니다. 연합뉴스TV 김도헌입니다. [영상취재 최승아]... </t>
+          <t>15일 예상 강수량은 서울, 인천, 경기 5~20mm, 강원내륙, 산지 10~60mm, 강원동해안 5~40mm, 충북 10~60mm... 예상 최고기온은 오늘(15일) 25~31도, 16일(수) 26~31도, 17일(목) 26~32도, 18일(금) 28~32도다. [톱스타뉴스=]</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Mon, 14 Jul 2025 22:38:00 +0900</t>
+          <t>Tue, 15 Jul 2025 14:08:00 +0900</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -2151,27 +2151,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>공감 칼럼(문장들) I 폭염 못 막아도 무방비 노동 멈춰야 [김준일의 뉴스...</t>
+          <t>'폭염 주춤' 이번주 내내 비...16일~17일 중부·전북 200mm '물폭탄'</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://news.cpbc.co.kr/article/1165483?division=NAVER</t>
+          <t>https://www.newspim.com/news/view/20250715000627</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">뉴스도 있었잖아요. ▷20대 베트남 노동자였는데 잠시 화장실에 갔다 오겠다라고 했는데 안 나타나서 보니까 지하에 앉아서 사망한 걸로 발견이 됐죠. ▶서효인: 예. 그것도 온열 질환 때문에 그런 거잖아요. 날씨가 워낙... </t>
+          <t xml:space="preserve">17일부터는 북태평양고기압 가장자리를 따라 따뜻하고 습한 남서풍이 불어들면서 습한 날씨가 이어지겠다.... [서울=뉴스핌] 김학선 기자 = 비가 내리면서 2주 넘게 이어지던 폭염이 잠시 주춤해진 14일 서울... </t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Mon, 14 Jul 2025 22:26:00 +0900</t>
+          <t>Tue, 15 Jul 2025 14:04:00 +0900</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -2181,27 +2181,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[뉴스9 날씨] 전국에 비 내리며 폭염 누그러져</t>
+          <t>농식품부 "배추 생산 줄면 비축물량 하루 100∼250t씩 푼다"</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011989118?sid=103</t>
+          <t>https://n.news.naver.com/mnews/article/001/0015508274?sid=101</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>물결은 동해상에서 최고 5m로 매우 높게 일겠습니다. 초복인 일요일에는 비가 그치고 서울의 낮 기온이 32도까지 오르는 등 덥겠습니다. 날씨였습니다. 강아랑 기상캐스터/그래픽:김유진/진행:이주현</t>
+          <t xml:space="preserve">늘듯 (서울=연합뉴스) 신선미 기자 = 정부는 이상기후 여파로 여름철 배추 수급이 불안해지면 비축 배추 등을 시장에 하루 100∼250t(톤)씩 방출하기로 했다. 농림축산식품부는 최근 폭염, 호우 등 급변하는 날씨에 따라... </t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Mon, 14 Jul 2025 22:01:00 +0900</t>
+          <t>Tue, 15 Jul 2025 14:00:00 +0900</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -2211,27 +2211,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>내일날씨, 강원 "100mm이상 많은비" 서울·대구28도 더위 주춤</t>
+          <t>수박 소매가 평균 3만원 돌파…작년보다 40% 비싸</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.gukjenews.com/news/articleView.html?idxno=3324764</t>
+          <t>http://www.newsfc.co.kr/news/articleView.html?idxno=72515</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">천둥번개 동반한 비스케치, 날씨 (사진=국제뉴스DB) 기상청은 내일 15일까지 전국 대부분 지역에... * 예상 강수량(14~15일) - (수도권) 서울.인천.경기: 10~60mm/ 서해5도: 5~20mm - (강원도) 강원영동중.북부: 30~80mm... </t>
+          <t xml:space="preserve">▲지난 13일 서울 한 대형마트 수박 판매대 모습. 연합뉴스  수박 한 통 평균 소매 가격이 3만원을 돌파한... 유통업계는 무더운 날씨가 생육에 영향을 미쳐 수박 당도가 떨어지는 경향이 있어 기준치 이상의 물량이... </t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Mon, 14 Jul 2025 21:36:00 +0900</t>
+          <t>Tue, 15 Jul 2025 11:04:00 +0900</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -2241,27 +2241,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[날씨]전국 대부분 비…영동 ‘물폭탄’</t>
+          <t>수박 한 통에 3만원 넘었다···1년 전보다 40% 비싸</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/449/0000314816?sid=103</t>
+          <t>https://n.news.naver.com/mnews/article/033/0000049148?sid=101</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>다만 높은 습도로 인해 찜통더위가 찾아올 전망입니다. 내일 아침에는 서울 21도에서 출발하고요. 낮 기온은 서울 28도, 강릉 29도에 그치겠습니다. 채널A 뉴스 날씨였습니다. 마지현 기상캐스터</t>
+          <t xml:space="preserve">유통업계는 무더운 날씨가 생육에 영향을 미쳐 수박 당도가 떨어지는 경향이 있어 기준치 이상의 물량이 부족한 상황이라고 본다. 서울 마포의 한 과일가게 주인은 “이달 초만 해도 수박 8㎏짜리를 2만8000... </t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Mon, 14 Jul 2025 20:04:00 +0900</t>
+          <t>Tue, 15 Jul 2025 10:56:00 +0900</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -2271,27 +2271,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[내일 날씨] 전국 비 예보…강원 영동 최고 100㎜ 이상 폭우</t>
+          <t>CU, ‘폭염’에서 ‘장마’ 마케팅으로 급전환‧‧‧ 오락가락 도깨비 ...</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.ajunews.com/view/20250714191414791</t>
+          <t>https://www.seoultimes.news/news/article.html?no=2000076121</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">아주경제=신동근 기자 sdk6425@ajunews.com 비가 내린 14일 서울 종로구 광화문광장 인근에서 외국인 관광객이 쇼핑백으로 비를 피하고 있다. [사진=연합뉴스] 화요일인 15일은 전국이 대체로 흐리고 대부분 지역에... </t>
+          <t xml:space="preserve">8% 이용 늘어 최대 7천원까지 할인 혜택 늘리고 포켓CU에서 닭강정, 순살치킨 배달 전용 행사도 기획 [서울타임즈뉴스 = 서연옥 기자] CU가 최근 극단적인 날씨 변화 속에 이달 마케팅 전략을 기존 더위에서 장마로 재빨리... </t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Mon, 14 Jul 2025 19:16:00 +0900</t>
+          <t>Tue, 15 Jul 2025 10:48:00 +0900</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -2301,27 +2301,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[게임뉴스] 가레나 '신월동행', 코믹월드 서머 참가 외 주요 소식</t>
+          <t>이재명 정부 한 달 반…금융업권 하반기 기상도는?</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.gamevu.co.kr/news/articleView.html?idxno=50017</t>
+          <t>https://www.straightnews.co.kr/news/articleView.html?idxno=276023</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">- 게임 컴퍼니 빌더이자 111퍼센트 지주사인 '슈퍼패스트('대표 김강안)는 오는 7월 30일(화) 서울 잠실... 「마음의 날씨」 등 한정 ANN.SSR 카드가 등장한다. 신규 카드에는 남주인공과의 특별한 3D 기념 증표와 전용... </t>
+          <t xml:space="preserve">더불어민주당 코스피 5000 특별위원회가 23일 서울 여의도 국회에서 출범식을 열었다. 김병기 당대표 직무대행 겸 원내대표와 오기형 특위 위원장 등 소속 위원들이 기념촬영 하고 있다. 연합뉴스. 대형 증권사의 평균... </t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Mon, 14 Jul 2025 18:22:00 +0900</t>
+          <t>Tue, 15 Jul 2025 10:48:00 +0900</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -2331,27 +2331,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>‘해수욕’ 대신 ‘호수욕’…생존수영과 클라이밍 한번에</t>
+          <t>수박 한 통에 4만원?… 폭염이 부른 '금수박'</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011988832?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/022/0004051755?sid=101</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">[구환모/서울시 영등포구 : "탑을 찍고 내려왔을 때 그 즐거움은 항상 큰 것 같습니다. 운동하면서 땀 흘리고... [안토니오 로마노/미국 뉴욕 : "이렇게 습하고 더운 날씨에 별로 익숙하지 않아요. 오늘 친구들이랑 와서... </t>
+          <t xml:space="preserve">서울 마포의 한 과일가게 주인은 “이달 초만 해도 수박 8㎏짜리를 2만8000∼2만9000원 받았는데 지금은 3만7000원에 판다”고 말했다. 뉴스1 그는 “9㎏짜리는 4만원은 받아야 하는데 3만9000원” 이라면서 “날씨가... </t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Mon, 14 Jul 2025 18:17:00 +0900</t>
+          <t>Tue, 15 Jul 2025 10:28:00 +0900</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -2361,27 +2361,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7월 15일 내일 날씨, 전국 대부분 지역 흐림→비…예상 강수량-기온 보...</t>
+          <t>[아침뉴스타임 날씨] 오늘도 전국 곳곳에 비…강풍·벼락 주의</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.topstarnews.net/news/articleView.html?idxno=15732280</t>
+          <t>https://n.news.naver.com/mnews/article/056/0011989428?sid=103</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>14~15일 예상 강수량은 서울, 인천, 경기 10~60mm, 서해5도 5~20mm, 강원영동중, 북부 30~80mm(많은 곳... 5~32.8도, 15일(화) 26~31도, 16일(수) 26~30도, 17일(목) 28~32도, 18일(금) 28~32도다. [톱스타뉴스=]</t>
+          <t xml:space="preserve">서울은 오늘과 내일, 모레 목요일 계속 28도에 머물러 평년 수준과 비슷하겠습니다. 하지만 비가 그친 직후에는 습도가 높아 최고 체감온도가 31도 안팎까지 오르면서 후텁지근하겠습니다. 날씨 전해드렸습니다.... </t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Mon, 14 Jul 2025 17:58:00 +0900</t>
+          <t>Tue, 15 Jul 2025 10:27:00 +0900</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -2391,27 +2391,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>남산 품은 하얏트의 여름... 향기·미식·혜택 다 담았다</t>
+          <t>[날씨] 전국 곳곳 비 계속…국지적으로 강한 비도</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.joongangenews.com/news/articleView.html?idxno=434479</t>
+          <t>https://www.joongangenews.com/news/articleView.html?idxno=434759</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">|중앙이코노미뉴스 윤남웅 기자|그랜드 하얏트 서울 호캉스 포스터. [사진=그랜드 하얏트 서울]  그랜드... 장마철 궂은 날씨에도 호텔 내에서 온전히 머물며 여유로운 시간을 보낼 수 있는 이번 패키지는 야외 수영장... </t>
+          <t xml:space="preserve">|중앙이코노미뉴스 엄현식 기자|14일 오후 대전시 서구 둔산동 보라매공원을 지나는 시민들이 비를... 오전 8시 기준 주요 도시 기온은 서울 22도, 인천 21도, 대전 21.4도, 광주 22도, 대구 22.5도, 울산 22.2도, 부산 23.... </t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Mon, 14 Jul 2025 17:46:00 +0900</t>
+          <t>Tue, 15 Jul 2025 08:56:00 +0900</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -2421,27 +2421,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>영화·드라마·연극 전전후 활약…류경수, 천의얼굴 증명의 시간</t>
+          <t>[오늘 날씨] 인천 등 전국 천둥·번개 동반한 비…낮 최고기온 예년과 ...</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://m.entertain.naver.com/article/437/0000448487</t>
+          <t>https://www.incheonilbo.com/news/articleView.html?idxno=1296135</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">이어 호평이 쇄도한 tvN '미지의 서울'을 통해 조훈과는 180도 다른 모습을 담아내며 연기 변신을 성공적으로... '아당'과는 또 다른 광기 서린 눈빛과 차분한 말투로 협박하는 류경수의 모습은 무더운 날씨를 한순간 잊게... </t>
+          <t xml:space="preserve">▲ 비가 내린 지난 14일 서울 종로구 광화문광장에서 시민들이 이동하고 있다. /연합뉴스 화요일인... 다음은 15일 지역별 날씨 전망. [오전, 오후](최저∼최고기온) ▲ 서울 : [흐리고 비, 흐리고 한때 비] (21∼28)... </t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Mon, 14 Jul 2025 17:17:00 +0900</t>
+          <t>Tue, 15 Jul 2025 07:10:00 +0900</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
@@ -2451,1107 +2451,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>전국 장맛비에 폭염 주춤… 강원영동 최대 100mm 이상 [내일날씨]</t>
+          <t>[날씨] "우산 챙기세요"...대부분 지역 비 내리다 밤에 그쳐</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.bntnews.co.kr/article/view/bnt202507140174</t>
+          <t>https://www.delighti.co.kr/news/articleView.html?idxno=99199</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>©서울, 서울날씨, 오늘날씨, 내일날씨 오늘(14일) 날씨는 전국이 대체로 흐리고, 밤(18~24시)부터... 아침 최저기온은 23~26도, 낮 최고기온은 30~34도가 되겠다. bnt뉴스 라이프팀 기사제보</t>
+          <t xml:space="preserve">(사진=연합뉴스) 화요일인 15일 전국이 대체로 흐리고 대부분 지역에서 비가 내리겠다. 기상청에 따르면... 오전 6시 현재 주요 도시 기온은 ▲서울 21.5도 ▲인천 21.0도 ▲수원 20.9도 ▲춘천 20.1도 ▲강릉 19.6도... </t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Mon, 14 Jul 2025 17:14:00 +0900</t>
+          <t>Tue, 15 Jul 2025 06:58:00 +0900</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>[내일 날씨] 전국 대부분 비…충청·전북권 시간당 20~30㎜</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>https://www.newsworks.co.kr/news/articleView.html?idxno=803476</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>최고 기온은 ▲서울 29도 ▲인천 28도 ▲춘천 29도 ▲강릉 28도 ▲대전 27도 ▲청주 28도 ▲광주 28도 ▲전주 28도 ▲대구 29도 ▲부산 28도 ▲제주 29도다. [뉴스웍스=]</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 17:10:00 +0900</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>[퇴근길 날씨] 반가운 빗방울에 더위도 주춤⋯ 진주 등 싸락우박 예보</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>https://www.asiatime.co.kr/article/20250714500378</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(사진=연합뉴스) 기상청에 따르면 이날 예상 강수량은 서울∙인천∙경기 10~60㎜, 서해5도 5~20㎜, 강원영동중∙북부 30~80㎜, 강원영동남부, 강원영서 5~40㎜, 대전∙세종∙충남, 충북 10~60㎜, 전북 10~60㎜, 광주∙전남... </t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 17:08:00 +0900</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>[뉴스이용자위원회] "사설, 중립 집착한 양비론보다 일관된 비판 해야"</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000875864?sid=110</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">한국일보 뉴스이용자위원회는 11일 서울 중구 한국일보사에서 회의를 열고 오피니언 콘텐츠를 평가했다.... 단순한 날씨 문제가 아닌 생존권과 연결된 사회 문제로 바라보고 지원 필요성을 제시한 점이 인상적"이라고 높이... </t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 17:00:00 +0900</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>[지평선] 여름 감옥의 무더위</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000875865?sid=110</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">던지며 뉴스의 의미를 새롭게 해석하는 코너입니다. 감옥을 무대로 한 문학작품엔 여름과 겨울의 모진 날씨... 서울동부구치소 최상층에 수감됐던 이명박 전 대통령은 2018년 여름 지병(당뇨 및 수면무호흡증)이 악화돼 외부... </t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 17:00:00 +0900</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>"전세계 어디서나 현대카드 앱으로 편리하게 여행하세요"</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>https://www.newspim.com/news/view/20250714001051</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'해외모드' 홈 화면에서는 날씨, 환율 정보, 환율 계산기 등 여행 중에 가장 요긴하게 사용하는 정보들을 바로 이용할 수 있다. [서울=뉴스핌] 이윤애 기자 = 현대카드는 더욱 편리한 해외 여행을 위해 현대카드의 글로벌... </t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 16:49:00 +0900</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>밤사이 충청·전북 강한 비…내일 오전 강원영동 집중호우 유의(내일날...</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>https://www.topstarnews.net/news/articleView.html?idxno=15732131</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>(오전/오후 날씨, 최저/최고기온, 오전/오후 강수확률)는 다음과 같다. ○ 중부지역 서울... 60%/60% 포항 : 흐리고가끔비/흐리고가끔비, 22℃/28℃, 60%/60% 제주 : 흐리고비/흐리고한때비, 24℃/29℃, 60%/60% [톱스타뉴스=]</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 16:40:00 +0900</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>[어제의 인문학] 겸재 정선과 김홍도가 사랑한 금강산</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>https://www.newspim.com/news/view/20250714000974</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[서울=뉴스핌] 오광수 문화전문기자 = 단원 김홍도의 '금강사군첩' 2025.07.14 oks34@newspim.com 정선의 또 다른... 이 이야기를 들은 정선은 날씨가 사나워질 때를 기다려 파도가 일렁이는 옹천의 모습을 화폭에 담았다.... </t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 16:00:00 +0900</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>[이슈딜] 올해 2배 오른 한전…10년 박스권 4만원 뚫을까</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>https://news.dealsitetv.com/articles/156679</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">실제로 관측 이래 서울 기온이 가장 높다고 하죠. 날씨가 뉴스가 되는 그런 여름이 돌아왔습니다. 때문에 이 전력 수요 그리고 한국전력 관련된 이야기를 오늘 좀 나눠볼까 합니다. 요즘 너무 더워서 전력 수요가... </t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 15:32:00 +0900</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>종로날씨 여름비, 비 오는 날엔 박물관과 전통문화 체험</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>https://www.topstarnews.net/news/articleView.html?idxno=15732006</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>14일 서울 종로구는 비가 내리는 가운데 기온은 24.5도, 체감온도는 26.4도로 다소 습하고 선선한 날씨가... 종로서적 등도 도심 속에서 비를 피해 머무르며 차분한 시간을 보낼 수 있는 여행지로 추천된다. [톱스타뉴스=]</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 15:32:00 +0900</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>추웠던 4~5월에 빙과업계 2Q 실적 부진 전망</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>https://www.pinpointnews.co.kr/news/articleView.html?idxno=359654</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">사진=연합뉴스 올해 4~5월 예년보다 추웠던 날씨가 이어지면서 2분기 빙과업계가 부진한 실적을 받아들... 심은주 하나증권 연구원은 "서울에서 근대적 기상관측을 시작한 이래 가장 높은 기온을 기록 중"이라며... </t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 15:30:00 +0900</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>SK매직 새 이름 'SK인텔릭스', AI 웰니스로 미래 정조준</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>http://www.00news.co.kr/news/articleView.html?idxno=95603</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">공공뉴스=이화종 기자 SK매직이 'SK인텔릭스(SK intellix)'로 간판을 교체했다. 기존 사업을 유지·확장하는... 최성환 나무엑스 EA가 지난 4월 23일 서울 광진구 워커힐 호텔에서 열린 나무엑스 쇼케이스에서 '나무'를... </t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 15:28:00 +0900</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>올해 더위 역대급, '이때'까지 반팔 입을 수도... 기상학자의 충격적인...</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>https://www.insight.co.kr/news/511213</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">손석우 서울대 지구환경과학부 교수(기상청 장마특이기상센터장)는 14일 CBS 라디오 '김현정의 뉴스쇼'에... 손 교수는 "보통 7월엔 장마전선이 발달해 비가 내리는데, 지금은 구름 한 점 없는 맑은 날씨가 이어지고 있다"고... </t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 15:08:00 +0900</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>부산 서면 놀거리 총정리, 감성 카페부터 방탈출·VR까지</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>https://www.joongangenews.com/news/articleView.html?idxno=434608</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">|중앙이코노미뉴스 이상민 기자|출처=한국관광공사  부산 서면은 감성 카페, 체험 액티비티, 쇼핑, 문화가... 방탈출 마니아들에게는 '이스케이프탑', '서울이스케이프룸', '다이아에그', '비트포비아', '크라임씬플레이' 등... </t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 14:16:00 +0900</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>81</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>심상치 않은 날씨…서울서 열대과일 바나나 열려</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000759463?sid=101</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t xml:space="preserve">고온다습한 날씨가 이어지면서 서울 도심 한복판에서 바나나가 열리는 진풍경까지 벌어졌습니다. 현장에... 지금까지 서울 노원구 바나나 농장에서 연합뉴스TV 김도헌입니다. [현장연결 최승아] #서울 #폭우 #기후변화 #폭염... </t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 14:11:00 +0900</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>82</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>첼시, 클럽 월드컵 우승으로 1786억원 벌었다…화려한 ‘쩐의 전쟁’ 이...</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>https://m.sports.naver.com/wfootball/article/468/0001161837</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">AFP연합뉴스 [스포츠서울 | 정다워 기자] 화려한 ‘쩐의 전쟁’ 주인공은 첼시였다. 첼시는 14일(한국시간)... 체력 문제는 곧 날씨와 직결된다. 대회가 열린 미국의 경우 악천후로 인해 대회 운영에 애를 먹었다. 울산... </t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 13:53:00 +0900</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>83</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>[#통신 풍향계] KT '나라사랑 카드 발급 플랫폼' 구축·LGU+ '혹서기 지원...</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>https://www.newsworks.co.kr/news/articleView.html?idxno=803412</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t xml:space="preserve">현장 직원들이 폭염 단계에 따라 빠르게 대응할 수 있도록 날씨정보와 함께 구체적 행동 요령과 안전... 무더운 여름철에 집에서 스포츠, 뉴스, 예능 등 인기 채널과 최신 영화·방송·애니메이션·키즈 콘텐츠를 모두... </t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 13:40:00 +0900</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>84</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>찜통 더위 기승에…서울 도심서 바나나 열려</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000759434?sid=102</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">고온다습한 날씨가 이어지면서 서울 도심 한복판에서 바나나가 열리는 진풍경까지 벌어졌습니다. 현장에... 지금까지 서울 노원구 바나나 농장에서 연합뉴스TV 김도헌입니다. [현장연결 최승아] #서울 #폭우 #기후변화 #폭염... </t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 13:07:00 +0900</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>85</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>박범계 "야당 대표 이재명 탄압했던 윤석열이 본인 인권 얘기? 웃기는 얘...</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/047/0002480801?sid=100</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">지금 보면 날씨가 너무 덥고 우리 국민들도 여러 가지로 뉴스 하나하나에 반응하게 되는 그런 상황이고. 너무... ◎ 박지희 &amp;gt; 지지자들이 윤석열 방에 에어컨 좀 놔달라 이래서 서울 구치소에서 굉장히 지금 난감해하고 있다... </t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 12:57:00 +0900</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>86</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>"올해 더위, 이때까지 계속될 것" 기상 전문가들의 섬뜩한 예측</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>https://www.wikitree.co.kr/articles/1064865</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">손석우 서울대 지구환경과학부 교수는 지난 11일 CBS 라디오 ‘김현정의 뉴스쇼’에 출연해 “올해 매우 더운... 고온다습한 날씨만 계속되고 있다”고 설명했다. 이른바 ‘무혈입성’이라는 표현으로 설명된 올해의 기압... </t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 11:58:00 +0900</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>87</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>과천 흐린 날씨에 어울리는 실내 전시와 자연휴식 여행지</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>https://www.topstarnews.net/news/articleView.html?idxno=15731594</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>있어 날씨 영향을 거의 받지 않는다. 실내외 모두 즐기고 싶다면 서울대공원 식물원이 좋은 선택이다.... 전시·체험 위주의 일정으로 구성하고, 오전 시간에는 짧은 야외 활동을 병행하는 것이 최적의 선택이다. [톱스타뉴스=]</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 11:44:00 +0900</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>88</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>노동자가 길을 열었고, 농민은 그 길을 트랙터로 달렸다</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/047/0002480787?sid=102</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t xml:space="preserve">요즘 날씨는 정말 살인적입니다. 오전 6시에 논으로 나가 일을 시작하지만, 8시만 되면 숨이 막힐 정도입니다.... 트랙터 몰고 서울로 향한 이유 ▲  2024년 12월 21일부터 무박 2일간 '전봉준투쟁단'이 서울 진입 투쟁을 벌이자... </t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 11:43:00 +0900</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>89</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>기후위기 시대, 전기화 가속은 인류 생존의 열쇠</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/047/0002480780?sid=102</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">▲  폭염이 계속되는 지난 7월 9일 서울마포구 홍대 부근 거리에 설치된 전광판에 이날 기온이 표시되고 있 ⓒ 연합뉴스 더워도 너무 덥다. "날씨가 미쳐 돌아가고 있다"고들 한다. 대한민국은 지금 살인적인 폭염 한가운데... </t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 11:23:00 +0900</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>90</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>[시승기] KGM 액티언 하이브리드, 동급 모델 중 '가성비 甲'</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>http://www.industrynews.co.kr/news/articleView.html?idxno=66974</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t xml:space="preserve">인더스트리뉴스 서영길 기자  KG모빌리티(KGM)가 '액티언 가솔린' 모델에 이어 최근 '액티언 하이브리드'도... 출시 사흘밖에 되지 않은 따끈한 KGM 신상 액티언 하이브리드 차량을 지난 10일 서울 강남구 KGM 익스피리언스... </t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 10:10:00 +0900</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>91</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>[K-VIBE] 정광복의 K-자율주행 도전기…자율주행 자동차의 눈, 센서-②</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0015505072?sid=101</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">연합뉴스 동포·다문화부 K컬처팀은 독자 여러분께 새로운 시선으로 한국 문화와 K컬처를 바라보는 데... 영상 속 보행자가 도로를 횡단할지 예측하고, 도로 상태나 날씨까지 분석할 수 있게 된 것이다.... </t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 09:53:00 +0900</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>92</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>‘해수욕’ 대신 ‘호수욕’…생존수영과 클라이밍 한번에</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011988542?sid=102</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[구환모/서울시 영등포구 : "탑을 찍고 내려왔을 때 그 즐거움은 항상 큰 것 같습니다. 운동하면서 땀 흘리고... [안토니오 로마노/미국 뉴욕 : "이렇게 습하고 더운 날씨에 별로 익숙하지 않아요. 오늘 친구들이랑 와서... </t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 09:53:00 +0900</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>93</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>LG유플러스, 혹서기 대응책으로 현장직원 안전 책임진다</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>https://www.seoultimes.news/news/article.html?no=2000076009</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">발효시 날씨와 작업 안전RK이드 MMS 자동발송 넥스카프, 쿨토시, 차량용 냉장고 등 온열질환 예방을 위한 물품도 배부 “직원 안전 최우선으로 생각해 지원책 지속 발굴 예정” [서울타임즈뉴스 = 최남주 기자]... </t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 09:46:00 +0900</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>94</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>7월 14일 오늘 날씨, 전국 대부분 지역 비…예상 강수량-기온 보니</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>https://www.topstarnews.net/news/articleView.html?idxno=15731341</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>14~15일 예상 강수량은 서울, 인천, 경기 10~50mm, 서해5도 5~20mm, 강원영동중, 북부 30~80mm(많은 곳 120mm... 예상 최고기온은 오늘(14일) 24~31도, 15일(화) 26~30도, 16일(수) 26~30도, 17일(목) 28~33도다. [톱스타뉴스=]</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 09:36:00 +0900</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>95</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>빗줄기로 역대급 폭염 못 꺾는다…"올 11월도 반팔 입을듯"</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0005221014?sid=102</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">손석우 서울대 지구환경과학부 교수는 최근 CBS 라디오 '김현정의 뉴스쇼'에서 출연해 올여름 역대급 폭염... 맑은 날씨가 이어지고 있다. 일조량이 늘어 기온이 올라가는 것"이라고 말했다. 이어 "제주와 남부 지방... </t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 09:23:00 +0900</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>96</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>세계의 날씨(7월14일)</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0015504908?sid=103</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>(서울=연합뉴스)</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 09:04:00 +0900</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>97</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>[날씨] 전국 곳곳 비…강원영동 중북부 시간당 30∼50㎜ 호우</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>https://www.joongangenews.com/news/articleView.html?idxno=434409</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t xml:space="preserve">|중앙이코노미뉴스 엄현식 기자|[사진=연합]  월요일인 14일 전국 곳곳 비가 내려 무더위를 씻겨줄... 한편 오전 8시 주요 도시 기온은 서울 25.1도, 인천 23.9도, 대전 22.4도, 광주 22.8도, 대구 23도, 울산 20.7도, 부산... </t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 09:00:00 +0900</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>98</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>이번 주는 장마? …19일까지 전국적으로 비, 습도는 높아 [날씨]</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>http://www.kdfnews.com/news/articleView.html?idxno=160929</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>오전 8시 주요 도시 기온은 서울 25.1도, 인천 23.9도, 대전 22.4도, 광주 22.8도, 대구 23도, 울산 20.7도, 부산... 내려갔다가 그친 뒤 습도가 높은 상태에서 기온이 곧바로 올라 다시 무더워지겠다. 연합뉴스 한국면세뉴스</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 08:40:00 +0900</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>99</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>[기자수첩] 같은 찜통 속 만두처럼 보여도</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>https://www.newspim.com/news/view/20250711000260</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t xml:space="preserve">종전 서울 최고 기록인 1939년 7월 9일의 36.8도를 1도 넘어선 86년 만에 신기록이다. 다시금 언론사마다 '속보'가 쏟아졌다. '극한 날씨'가 일상이 된 2025년, 날씨는 생명과 직결된 뉴스다. 폭염은 지속될수록 그 피해가... </t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 08:30:00 +0900</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>100</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>"역대급 폭염 길어진다…11월 반팔 재연 가능성"</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>https://www.etoday.co.kr/news/view/2487319</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t xml:space="preserve">손석우 서울대 지구환경과학부 교수(기상청 장마특이기상센터장)는 14일 CBS 라디오 '김현정의 뉴스쇼'에... 맑은 날씨가 이어지고 있다”고 설명했다. 여기에 상층 고기압인 티베트 고기압까지 겹치면서 ‘이중 뚜껑’... </t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 08:30:00 +0900</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>101</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>폭염특보 해제…내일까지 비 소식</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011988470?sid=102</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>[김미정·김석원/서울시 영등포구 : "우산이 없어서 비를 맞긴 했지만 날씨가 시원해져서 기분이 더 좋았고... 비가 오겠고, 비가 그친 뒤에는 다시 무더위가 찾아올 것으로 예보했습니다. KBS 뉴스 김호입니다. 촬영기자:박석수</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 07:44:00 +0900</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>102</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>[기상속보] 오늘날씨 전국 흐리고 비 강원영동 시간당 30∼50㎜ 집중호우...</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>http://www.issuenbiz.com/news/articleView.html?idxno=63600</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">오늘날씨 전국 흐리고 비 강원영동 시간당 30∼50㎜ 집중호우 서울 낮 28도 출근길 서쪽 지역 짙은안개 운전주의 /사진=연합뉴스DB 기상청 속보에 따르면월요일인 14일 전국이 대체로 흐리고 가끔 비가... </t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 07:16:00 +0900</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>103</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>[오늘 날씨] 인천 등 전국 가끔 비…더위 다소 누그러지면서 폭염특보 ...</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>https://www.incheonilbo.com/news/articleView.html?idxno=1295965</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">▲ 서울 최고기온이 37도까지 오르며 무더운 날씨를 보인 8일 저녁 소나기가 내리자 시민들이 우산을 쓰고 이동하고 있다. /연합뉴스 월요일인 14일 전국이 대체로 흐리고 가끔 비가 내리겠다. 13∼15일 예상... </t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Mon, 14 Jul 2025 07:08:00 +0900</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>2025-07-15 16:37:06</t>
+          <t>2025-07-16 16:17:09</t>
         </is>
       </c>
     </row>
